--- a/biology/Neurosciences/Implant_électronique/Implant_électronique.xlsx
+++ b/biology/Neurosciences/Implant_électronique/Implant_électronique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Implant_%C3%A9lectronique</t>
+          <t>Implant_électronique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les implants électroniques sont des systèmes électroniques implantés dans le corps humain ou animal, afin de réaliser des objectifs médicaux, militaires, ou civils.
 Ils apparaissent dans de nombreuses œuvres de fiction.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Implant_%C3%A9lectronique</t>
+          <t>Implant_électronique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,18 +524,54 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les implants électroniques peuvent être des:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les implants électroniques peuvent être des:
 Stimulateur cardiaque (Pacemaker) ;
 implants cérébraux, ou "BrainChip", également appelés "puce électronique cérébrale" ou "puce cérébrale". Parmi lesquels on trouve des stimulateurs cérébraux
 implant du tronc cérébral
 implants cochléaires
 puces sous-cutanées
 puces seringue
-implants rétiniens
-Fictions et canulars
-téléphone dentaire (fiction)
+implants rétiniens</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Implant_électronique</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Implant_%C3%A9lectronique</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fictions et canulars</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">téléphone dentaire (fiction)
  Portail des neurosciences                     </t>
         </is>
       </c>
